--- a/1700 계획.xlsx
+++ b/1700 계획.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn004\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn004\Desktop\sourcetree test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,57 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <x:si>
+    <x:t>318000골드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1680~1690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박민영 바보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 재료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 골드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아비도스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1680~1700 종합 골드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운파석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누골</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용숨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빙숨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운돌</x:t>
+  </x:si>
   <x:si>
     <x:t>보석</x:t>
   </x:si>
   <x:si>
+    <x:t>운수석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1690~1700(무기 강화)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1690~1700(방어구 상재)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운수석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1680~1700 종합 골드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아비도스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 재료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빙숨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용숨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1690~1700(무기 강화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 골드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운돌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운파석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>318000골드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1680~1690</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운파</x:t>
-  </x:si>
-  <x:si>
-    <x:t>누골</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -137,7 +140,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -821,269 +827,274 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:J16"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I9" activeCellId="0" sqref="I9:I9"/>
+      <x:selection activeCell="B19" activeCellId="0" sqref="B19:B19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.890625" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="9" width="9.00390625" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="9.4921875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="21.890625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="9" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="9.4921875" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" s="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B1" s="2">
         <x:v>0.20000000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="2">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="2">
+        <x:v>0.080000000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="1">
+      <x:c r="B6" s="2">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="2">
+        <x:v>504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="2"/>
+      <x:c r="B10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J10" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B3" s="1">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>0.080000000000000004</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B7" s="1">
-        <x:v>504</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="1"/>
-      <x:c r="B10" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J10" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B11" s="2">
         <x:v>328209</x:v>
       </x:c>
-      <x:c r="C11" s="1">
+      <x:c r="C11" s="2">
         <x:v>220688</x:v>
       </x:c>
-      <x:c r="D11" s="1">
+      <x:c r="D11" s="2">
         <x:v>26715</x:v>
       </x:c>
-      <x:c r="E11" s="1">
+      <x:c r="E11" s="2">
         <x:v>3999</x:v>
       </x:c>
-      <x:c r="F11" s="1">
+      <x:c r="F11" s="2">
         <x:v>1308230</x:v>
       </x:c>
-      <x:c r="G11" s="1">
+      <x:c r="G11" s="2">
         <x:v>2605</x:v>
       </x:c>
-      <x:c r="H11" s="1">
+      <x:c r="H11" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I11" s="1">
+      <x:c r="I11" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J11" s="1">
+      <x:c r="J11" s="2">
         <x:f>SUM(B11+C11*B1+D11*B2+E11*B3+F11*B4+G11*B5)</x:f>
         <x:v>852799</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B12" s="1">
+      <x:c r="A12" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B12" s="2">
         <x:v>107636</x:v>
       </x:c>
-      <x:c r="C12" s="1">
+      <x:c r="C12" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D12" s="1">
+      <x:c r="D12" s="2">
         <x:v>81251</x:v>
       </x:c>
-      <x:c r="E12" s="1">
+      <x:c r="E12" s="2">
         <x:v>1311</x:v>
       </x:c>
-      <x:c r="F12" s="1">
+      <x:c r="F12" s="2">
         <x:v>435086</x:v>
       </x:c>
-      <x:c r="G12" s="1">
+      <x:c r="G12" s="2">
         <x:v>874</x:v>
       </x:c>
-      <x:c r="H12" s="1">
+      <x:c r="H12" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I12" s="1">
+      <x:c r="I12" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="1">
+      <x:c r="J12" s="2">
         <x:f>SUM(B12+C12*B1+D12*B2+E12*B3+F12*B4+G12*B5)</x:f>
         <x:v>557031.88</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B13" s="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B13" s="2">
         <x:v>89009</x:v>
       </x:c>
-      <x:c r="C13" s="1">
+      <x:c r="C13" s="2">
         <x:v>44504</x:v>
       </x:c>
-      <x:c r="D13" s="1">
+      <x:c r="D13" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E13" s="1">
+      <x:c r="E13" s="2">
         <x:v>791</x:v>
       </x:c>
-      <x:c r="F13" s="1">
+      <x:c r="F13" s="2">
         <x:v>296697</x:v>
       </x:c>
-      <x:c r="G13" s="1">
+      <x:c r="G13" s="2">
         <x:v>791</x:v>
       </x:c>
-      <x:c r="H13" s="1">
+      <x:c r="H13" s="2">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="I13" s="1">
+      <x:c r="I13" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J13" s="1">
+      <x:c r="J13" s="2">
         <x:f>SUM((B13+C13*B1+D13*B2+E13*B3+F13*B4+G13*B5+H13*B6)*5)</x:f>
         <x:v>1074767.8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B14" s="1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="2">
         <x:v>140000</x:v>
       </x:c>
-      <x:c r="C14" s="1">
+      <x:c r="C14" s="2">
         <x:v>70000</x:v>
       </x:c>
-      <x:c r="D14" s="1">
+      <x:c r="D14" s="2">
         <x:v>7000</x:v>
       </x:c>
-      <x:c r="E14" s="1">
+      <x:c r="E14" s="2">
         <x:v>6000</x:v>
       </x:c>
-      <x:c r="F14" s="1">
+      <x:c r="F14" s="2">
         <x:v>800000</x:v>
       </x:c>
-      <x:c r="G14" s="1">
+      <x:c r="G14" s="2">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H14" s="1">
+      <x:c r="H14" s="2">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="I14" s="1"/>
-      <x:c r="J14" s="1">
+      <x:c r="I14" s="2"/>
+      <x:c r="J14" s="2">
         <x:f>SUM(B14+C14*B1+D14*B2+E14*B3+F14*B4+G14*B5+H14*B6)</x:f>
         <x:v>399200</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B15" s="2">
+      <x:c r="A15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="3">
         <x:f>SUM(J11+J12+J13-J14)</x:f>
         <x:v>2085398.6799999997</x:v>
       </x:c>
-      <x:c r="C15" s="2"/>
-      <x:c r="D15" s="2"/>
-      <x:c r="E15" s="2"/>
-      <x:c r="F15" s="2"/>
-      <x:c r="G15" s="2"/>
-      <x:c r="H15" s="2"/>
-      <x:c r="I15" s="2"/>
-      <x:c r="J15" s="2"/>
+      <x:c r="C15" s="3"/>
+      <x:c r="D15" s="3"/>
+      <x:c r="E15" s="3"/>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+      <x:c r="I15" s="3"/>
+      <x:c r="J15" s="3"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="1" t="s">
+      <x:c r="A16" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C16" s="3"/>
+      <x:c r="D16" s="3"/>
+      <x:c r="E16" s="3"/>
+      <x:c r="F16" s="2"/>
+      <x:c r="G16" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C16" s="2"/>
-      <x:c r="D16" s="2"/>
-      <x:c r="E16" s="2"/>
-      <x:c r="F16" s="1"/>
-      <x:c r="G16" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H16" s="2"/>
-      <x:c r="I16" s="2"/>
-      <x:c r="J16" s="2"/>
+      <x:c r="H16" s="3"/>
+      <x:c r="I16" s="3"/>
+      <x:c r="J16" s="3"/>
+    </x:row>
+    <x:row r="18" spans="2:2">
+      <x:c r="B18" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -1091,7 +1102,7 @@
     <x:mergeCell ref="B16:E16"/>
     <x:mergeCell ref="G16:J16"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>